--- a/comparisons/report_2023-04-07.xlsx
+++ b/comparisons/report_2023-04-07.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,31 +431,19 @@
       <c r="B1" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Rajesh Babu has 11 years and 11 months of experience.</t>
+Jolie Hodson has a range of skills, including business planning, FMCG, internal audit, strategic management, accounting and finance, and executive roles in different industries. She is also a Fellow of the Institute of Chartered Accountants Australia and New Zealand, a Women of Influence Finalist, and a Deloitte Top 200 Business Awards Chief Executive of the Year 2022.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Yes, Rajesh Babu is a good fit for a product owner role. He has 11 years of experience as a product owner, 8 months of experience as an agile coach, and 1 year and 6 months of experience as an integration manager. He also has certifications in Embracing a Culture of Feedback, DP-900 Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He is proficient in Python, Django, Agile Project Management, Tamil, and Klingon. He has a track record of delivering products that incorporate innovation and technological advancement in every iteration. He is able to bring his experience with studying and working in an Agile framework to ensure his squad delivers continuous value to customers. He has also created automated provisioning processes, bespoke applications, and managed technical debt. All of these qualifications and experiences make Rajesh Babu a great fit for a product owner role.</t>
+Mark Aue has a range of skills, including Telecommunications, Business Strategy, Business Intelligence, Financial Planning &amp; Analysis, Business Transformation, Business Analysis, Systems Technology &amp; Integration, Strategic Comparative Reporting, and KPI Reporting.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Yes, Rajesh Babu will likely thrive in an agile squad. He has 11 years of experience as a Product Owner, 8 months of experience as an Agile Coach, and 5 years of experience as a Team Lead and Squad Member. He also has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He has experience with Python, Django, Agile Project Management, and working cross-functionally. All of these skills and experiences make him well-suited for an agile squad.</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Yes, Rajesh Babu shows an aptitude for continuous learning and tradecraft development. He has a track record of delivering products that incorporate innovation and technological advancement, and has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He also has experience in Agile Project Management, Python, Django, and Business Process Automation. All of these demonstrate his aptitude for continuous learning and tradecraft development.</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Yes, Rajesh Babu will be easy and approachable to others in the squad. He has a track record of delivering products that incorporate innovation and technological advancement, and he has experience with studying and working in an Agile framework. He also has experience with coaching and leading high-performing teams, and has a history of open communication and team collaboration. All of these qualities suggest that Rajesh Babu will be easy and approachable to others in the squad.</t>
+Jason Paris has a variety of skills, including CEOs, strategic leadership, executive management, marketing, digital media, and strategy. He has also led teams of over 2,000 people and achieved impressive results, such as the largest ever capital return to shareholders in New Zealand history, the 2nd largest M&amp;A transaction in New Zealand history, and the fastest telco EBITDA, ICT, and mobile growth in NZ. Additionally, he has experience in launching 5G in NZ, leading the Telecom to Spark rebrand, and developing and launching TVNZ OnDemand.</t>
         </is>
       </c>
     </row>
@@ -463,7 +451,7 @@
       <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jolie Hodson has a range of skills, including business planning, FMCG, internal audit, strategic management, accounting and finance, and executive roles in different industries. She is also a Fellow of the Institute of Chartered Accountants Australia and New Zealand, a Women of Influence Finalist, and a Deloitte Top 200 Business Awards Chief Executive of the Year 2022.</t>
+Rajesh Babu has 11 years and 11 months of experience.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,25 +463,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It is difficult to answer this question without more information about the specific product owner role and the skills and experience required for it. However, based on the context provided, Jolie Hosdon appears to have a wealth of experience in business planning, FMCG, internal audit, and executive roles in different industries. She also has experience in mentoring women in business, being a member of Global Women and OnBeingBold, and chairing the Digital Boost Alliance Aotearoa Board. All of these experiences could be beneficial for a product owner role. Ultimately, it would depend on the specific requirements of the role and how well Jolie's skills and experience match those requirements.</t>
+Mark Aue has 20 years of experience.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the context provided, it is likely that Jolie Hodson will thrive in an agile squad. She has a diverse background in executive positions in different industries, including professional services, FMCG, telecommunications, and digital technology. She has also been appointed to Chief Executive of Spark and is passionate about mentoring women in business. Her experience with the Climate Leaders Coalition, Global Women, and On Being Bold demonstrate her ability to work in a collaborative environment and her commitment to helping others succeed. Additionally, her education in strategic management and accounting and finance suggest that she has the skills necessary to thrive in an agile squad.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Yes, Jolie Hosdon shows an aptitude for continuous learning and tradecraft development. She has had a diverse career working across executive positions in different industries, including professional services, FMCG, telecommunications and digital technology, in both New Zealand and Australia. She has also been involved in a number of initiatives that demonstrate her commitment to learning and development, such as the Climate Leaders Coalition, Global Women, OnBeingBold, and the Digital Boost Alliance. Additionally, she has completed a Bachelor of Commerce, a Strategic Management Program, and is a Fellow of the Chartered Accountants Australia and New Zealand. All of these experiences and qualifications demonstrate her aptitude for continuous learning and tradecraft development.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Jolie Hosdon's background and experience suggest that she will be easy and approachable to others in the squad. She has a diverse career working across executive positions in different industries, and is passionate about mentoring women in business. She is also a member of Global Women and OnBeingBold, an online collective developed by women for women. Her experience in the Lion Group, Spark, Climate Leaders Coalition, and Digital Boost Alliance demonstrate her commitment to collaboration and working with others. All of these factors suggest that she will be easy and approachable to others in the squad.</t>
+Jason Paris has 16 years of experience.</t>
         </is>
       </c>
     </row>
@@ -501,13 +477,13 @@
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mark Aue has a range of skills, including Telecommunications, Business Strategy, Business Intelligence, Financial Planning &amp; Analysis, Business Transformation, Business Analysis, Systems Technology &amp; Integration, Strategic Comparative Reporting, and KPI Reporting.</t>
+Yes, Rajesh Babu is a good fit for a product owner role. He has 11 years of experience in product ownership, as well as 8 months of experience as an Agile Coach. He also has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He is also ICAgile Certified Product Owner. He has experience in creating automated provisioning processes, creating bespoke applications, managing technical debt, and leading teams. He also has experience in working in an Agile framework and delivering continuous value to customers. All of these qualifications and experiences make Rajesh Babu a great fit for a product owner role.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mark Aue has 20 years of experience.</t>
+It is difficult to answer this question without more information about the specific product owner role and the skills and experience required for it. However, based on the context provided, Jolie Hosdon appears to have a wealth of experience in business planning, FMCG, internal audit, and executive roles in different industries. She also has experience in mentoring women in business, being a member of Global Women and OnBeingBold, and chairing the Digital Boost Alliance Aotearoa Board. All of these experiences could be beneficial for a product owner role. Ultimately, it would depend on the specific requirements of the role and how well Jolie's skills and experience match those requirements.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,19 +495,7 @@
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the context provided, it is difficult to say definitively whether Mark Aue will thrive in an agile squad. However, based on his experience and accomplishments, it is likely that he will be successful in an agile squad. He has demonstrated success in leading teams both nationally and internationally, driving efficiency and productivity gains, and developing people. He has also successfully implemented transformation programs and integrated acquired assets. All of these skills suggest that he will be able to adapt to an agile squad and be successful in it.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Yes, Mark Aue shows an aptitude for continuous learning and tradecraft development. He has held a variety of roles in different industries, and has consistently achieved significant improvements in staff engagement and performance. He has also implemented new strategies and processes to improve efficiency and profitability, and has been instrumental in driving systems evolution and decommissioning legacy systems.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-It is difficult to answer this question definitively without knowing more about Mark Aue's personality and how he interacts with others. However, based on the context provided, it appears that Mark Aue is a highly accomplished and experienced professional who is passionate about developing people and has achieved significant improvements in staff engagement and performance. This suggests that he is likely to be easy and approachable to others in the squad.</t>
+It is difficult to answer this question without more information about the specific product owner role and the skills and experience required for it. However, based on the context provided, Jason Paris appears to have a strong background in executive management, strategic leadership, and customer service, which could make him a good fit for a product owner role. Additionally, his experience in leading large teams and managing successful projects could be beneficial in a product owner role.</t>
         </is>
       </c>
     </row>
@@ -539,19 +503,19 @@
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jason Paris has a variety of skills, including CEOs, strategic leadership, executive management, marketing, digital media, and strategy. He has also led teams of over 2,000 people and achieved impressive results, such as the largest ever capital return to shareholders in New Zealand history, the 2nd largest M&amp;A transaction in New Zealand history, and the fastest telco EBITDA, ICT, and mobile growth in NZ. Additionally, he has experience in launching 5G in NZ, leading the Telecom to Spark rebrand, and developing and launching TVNZ OnDemand.</t>
+Yes, Rajesh Babu will likely thrive in an agile squad. He has 11 years of experience as a Product Owner, 8 months of experience as an Agile Coach, and 5 years 8 months of experience as a Team Lead and Squad Member. He also has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He has experience with Python, Django, Agile Project Management, and working cross-functionally. All of these experiences and certifications demonstrate that Rajesh Babu has the skills and knowledge necessary to thrive in an agile squad.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jason Paris has 16 years of experience.</t>
+Based on the context provided, it is likely that Jolie Hodson will thrive in an agile squad. She has a diverse background in executive positions in different industries, including professional services, FMCG, telecommunications, and digital technology. She has also been appointed to Chief Executive of Spark and is passionate about mentoring women in business. Her experience with the Climate Leaders Coalition, Global Women, and On Being Bold demonstrate her ability to work in a collaborative environment and her commitment to helping others succeed. Additionally, her education in strategic management and accounting and finance suggest that she has the skills necessary to thrive in an agile squad.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-It is difficult to answer this question without more information about the specific product owner role and the skills and experience required for it. However, based on the context provided, Jason Paris appears to have a strong background in executive management, strategic leadership, and customer service, which could make him a good fit for a product owner role. Additionally, his experience in leading large teams and achieving impressive results could be beneficial in a product owner role.</t>
+Based on the context provided, it is difficult to say definitively whether Mark Aue will thrive in an agile squad. However, based on his experience and accomplishments, it is likely that he will be successful in an agile squad. He has demonstrated success in leading teams both nationally and internationally, driving efficiency and productivity gains, and developing people. He has also successfully implemented transformation programs and integrated acquired assets. All of these skills suggest that he will be able to adapt to an agile squad and be successful in it.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -560,13 +524,53 @@
 Based on the context provided, it is likely that Jason Paris will thrive in an agile squad. His experience in leading teams and achieving results in competitive and fast-changing industries suggests that he is well-suited to the fast-paced and collaborative environment of an agile squad. Additionally, his experience in developing and launching digital products and services, as well as his experience in leading Spark to become No.1 in mobile and hold No.1 in broadband, suggest that he has the skills and experience necessary to succeed in an agile squad.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Yes, Rajesh Babu shows an aptitude for continuous learning and tradecraft development. He has a track record of delivering products that incorporate innovation and technological advancement, and has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He is also an ICAgile Certified Product Owner and has experience with Agile Project Management. All of these demonstrate his commitment to continuous learning and tradecraft development.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Yes, Jolie Hosdon shows an aptitude for continuous learning and tradecraft development. She has had a diverse career working across executive positions in different industries, including professional services, FMCG, telecommunications and digital technology, in both New Zealand and Australia. She has also been involved in a number of initiatives that demonstrate her commitment to learning and development, such as the Climate Leaders Coalition, Global Women, OnBeingBold, and the Digital Boost Alliance. Additionally, she has completed a Bachelor of Commerce, a Strategic Management Program, and is a Fellow of the Chartered Accountants Australia and New Zealand. All of these experiences and qualifications demonstrate her aptitude for continuous learning and tradecraft development.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Yes, Mark Aue shows an aptitude for continuous learning and tradecraft development. He has held a variety of roles in different industries, and has consistently achieved significant improvements in staff engagement and performance. He has also implemented new strategies and processes to improve efficiency and profitability, and has been instrumental in driving systems evolution and decommissioning legacy systems.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yes, Jason Paris shows an aptitude for continuous learning and tradecraft development. He has a long history of working in competitive and fast-changing industries, and has achieved impressive results in each of his roles. He has also completed a course at Harvard Business School, which demonstrates his commitment to learning and developing his skills.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Yes, Rajesh Babu will be easy and approachable to others in the squad. He has a track record of delivering products that incorporate innovation and technological advancement, and he has experience with studying and working in an Agile framework. He also has experience with creating automated provisioning processes, creating bespoke applications, managing technical debt, and leading teams. All of these experiences demonstrate that he is a great leader and is open to collaboration and communication.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Jolie Hosdon's background and experience suggest that she will be easy and approachable to others in the squad. She has a diverse career working across executive positions in different industries, and is passionate about mentoring women in business. She is also a member of Global Women and OnBeingBold, an online collective developed by women for women. Her experience in the Lion Group, Spark, Climate Leaders Coalition, and Digital Boost Alliance demonstrate her commitment to collaboration and working with others. All of these factors suggest that she will be easy and approachable to others in the squad.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+It is difficult to answer this question definitively without knowing more about Mark Aue's personality and how he interacts with others. However, based on the context provided, it appears that Mark Aue is a highly accomplished and experienced professional who is passionate about developing people and has achieved significant improvements in staff engagement and performance. This suggests that he is likely to be easy and approachable to others in the squad.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Based on the context provided, it is likely that Jason Paris will be easy and approachable to others in the squad. His experience in leading teams and his focus on people and customer service suggest that he is likely to be open and welcoming to others in the squad. Additionally, his involvement with the Make-A-Wish Foundation and his commitment to diversity and emerging women leaders suggest that he is likely to be open and approachable to others in the squad.</t>

--- a/comparisons/report_2023-04-07.xlsx
+++ b/comparisons/report_2023-04-07.xlsx
@@ -477,7 +477,7 @@
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Yes, Rajesh Babu is a good fit for a product owner role. He has 11 years of experience in product ownership, as well as 8 months of experience as an Agile Coach. He also has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He is also ICAgile Certified Product Owner. He has experience in creating automated provisioning processes, creating bespoke applications, managing technical debt, and leading teams. He also has experience in working in an Agile framework and delivering continuous value to customers. All of these qualifications and experiences make Rajesh Babu a great fit for a product owner role.</t>
+Yes, Rajesh Babu is a good fit for a product owner role. He has 11 years of experience as a product owner, 8 months of experience as an agile coach, and 1 year and 6 months of experience as an integration manager. He also has certifications in Embracing a Culture of Feedback, DP-900 Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He is proficient in Python, Django, Agile Project Management, Tamil, and Klingon. He has a track record of delivering products that incorporate innovation and technological advancement in every iteration. He is able to bring his experience with studying and working in an Agile framework to ensure his squad delivers continuous value to customers. He has also created automated provisioning processes, bespoke applications, and managed technical debt. All of these qualifications and experiences make Rajesh Babu a great fit for a product owner role.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -489,7 +489,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Based on the context provided, it appears that Mark Aue has the experience and skills necessary to be a successful product owner. He has a strong background in finance, commercial and operations, and has successfully led teams both nationally and internationally. He has experience in driving efficiency and productivity gains, as well as developing people and improving staff engagement and performance. He has also been successful in driving revenue growth and exceeding financial targets, as well as leading transformation programs and integrating acquired assets. All of these skills and experiences make him a good fit for a product owner role.</t>
+Based on the context provided, it appears that Mark Aue has the experience and skills necessary to be a successful product owner. He has a strong background in finance, commercial and operations, and has successfully led teams both nationally and internationally. He has experience in driving efficiency and productivity gains through reorganisation, and has a personal passion for the development of people. He has also successfully implemented strategic cost out programs, and has experience in driving systems evolution and roadmap development. All of these skills and experiences make him a good fit for a product owner role.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -503,7 +503,7 @@
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Yes, Rajesh Babu will likely thrive in an agile squad. He has 11 years of experience as a Product Owner, 8 months of experience as an Agile Coach, and 5 years 8 months of experience as a Team Lead and Squad Member. He also has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals Certification, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He has experience with Python, Django, Agile Project Management, and working cross-functionally. All of these experiences and certifications demonstrate that Rajesh Babu has the skills and knowledge necessary to thrive in an agile squad.</t>
+Yes, Rajesh Babu will likely thrive in an agile squad. He has 11 years of experience as a Product Owner, 8 months of experience as an Agile Coach, and 5 years of experience as a Team Lead and Squad Member. He also has certifications in Embracing a Culture of Feedback, Microsoft Azure Data Fundamentals, Radical Candor, GIT Going Fast, and UiPath Reboot Your Skills Diploma. He has experience with Python, Django, Agile Project Management, and working cross-functionally. All of these skills and experiences make him well-suited for an agile squad.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -555,7 +555,7 @@
       <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Yes, Rajesh Babu will be easy and approachable to others in the squad. He has a track record of delivering products that incorporate innovation and technological advancement, and he has experience with studying and working in an Agile framework. He also has experience with creating automated provisioning processes, creating bespoke applications, managing technical debt, and leading teams. All of these experiences demonstrate that he is a great leader and is open to collaboration and communication.</t>
+Yes, Rajesh Babu will be easy and approachable to others in the squad. He has a track record of delivering products that incorporate innovation and technological advancement, and he has experience with studying and working in an Agile framework. He also has experience with coaching and leading high-performing teams, and has a history of creating automated provisioning processes and bespoke applications. All of these experiences demonstrate that Rajesh Babu is a great leader and is approachable to others in the squad.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
